--- a/coverage_summary_updated.xlsx
+++ b/coverage_summary_updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rt753149/Desktop/mRNA_sequencing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10F3738-06A5-984B-BF03-263CB7A55010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5365627-D0FD-FA4B-AFCA-18D7FCBBF209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1996" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1995" uniqueCount="58">
   <si>
     <t>1</t>
   </si>
@@ -197,26 +197,23 @@
     <t>C</t>
   </si>
   <si>
-    <t xml:space="preserve">Currently working on de novo sequencing </t>
+    <t>Covered by de-novo</t>
   </si>
   <si>
-    <t>Verfied sequence through mass mapping or de novo</t>
+    <t xml:space="preserve">Covered by mass mapping </t>
   </si>
   <si>
-    <t>Undetectable Fragments</t>
+    <t>Undetectable fragments covered by mass mapping</t>
   </si>
   <si>
-    <t>819/1941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overall Coverage: </t>
+    <t>Uncovered fragments</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -240,8 +237,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -262,12 +267,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -275,6 +274,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -303,11 +320,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -315,25 +334,28 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -632,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BB43"/>
+  <dimension ref="A1:BA44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="141" workbookViewId="0">
-      <selection activeCell="AB20" sqref="AB20"/>
+    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="141" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36:AY36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -645,7 +667,7 @@
     <col min="52" max="52" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -797,233 +819,234 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="T2" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="U2" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="V2" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="W2" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="X2" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y2" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z2" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA2" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB2" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC2" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD2" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE2" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF2" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG2" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH2" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI2" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AJ2" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AK2" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL2" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AM2" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN2" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO2" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AP2" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AQ2" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="AR2" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="AS2" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="AT2" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="AU2" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AV2" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW2" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="AX2" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AY2" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="AZ2" s="6"/>
+      <c r="B2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AS2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AU2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AV2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AX2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AZ2" s="5"/>
+      <c r="BA2" s="18"/>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>51</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="T3" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="V3" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="W3" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="X3" s="8" t="s">
+      <c r="B3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="X3" s="4" t="s">
         <v>51</v>
       </c>
       <c r="Y3" s="3" t="s">
@@ -1107,9 +1130,9 @@
       <c r="AY3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="AZ3" s="6"/>
+      <c r="AZ3" s="5"/>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>101</v>
       </c>
@@ -1263,9 +1286,9 @@
       <c r="AY4" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AZ4" s="6"/>
+      <c r="AZ4" s="5"/>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>151</v>
       </c>
@@ -1332,13 +1355,13 @@
       <c r="V5" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="X5" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y5" s="4" t="s">
+      <c r="W5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y5" s="3" t="s">
         <v>51</v>
       </c>
       <c r="Z5" s="4" t="s">
@@ -1368,28 +1391,28 @@
       <c r="AH5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="AI5" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="AJ5" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="AK5" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL5" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AM5" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN5" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO5" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AP5" s="8" t="s">
+      <c r="AI5" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ5" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK5" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL5" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM5" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN5" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO5" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP5" s="10" t="s">
         <v>53</v>
       </c>
       <c r="AQ5" s="3" t="s">
@@ -1419,9 +1442,9 @@
       <c r="AY5" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AZ5" s="6"/>
+      <c r="AZ5" s="5"/>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>201</v>
       </c>
@@ -1440,13 +1463,13 @@
       <c r="F6" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I6" s="4" t="s">
+      <c r="G6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>51</v>
       </c>
       <c r="J6" s="4" t="s">
@@ -1575,9 +1598,9 @@
       <c r="AY6" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AZ6" s="6"/>
+      <c r="AZ6" s="5"/>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>251</v>
       </c>
@@ -1659,316 +1682,316 @@
       <c r="AA7" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="AB7" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC7" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD7" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE7" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF7" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="AG7" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH7" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="AI7" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="AJ7" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="AK7" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL7" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="AM7" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN7" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO7" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP7" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ7" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="AR7" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="AS7" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="AT7" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="AU7" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="AV7" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="AW7" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="AX7" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="AY7" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="AZ7" s="6"/>
+      <c r="AB7" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC7" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD7" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE7" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF7" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG7" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH7" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI7" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ7" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK7" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL7" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM7" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN7" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO7" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP7" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ7" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR7" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS7" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT7" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU7" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AV7" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW7" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AX7" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY7" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AZ7" s="5"/>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>301</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="L8" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="M8" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="N8" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="O8" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="P8" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q8" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="R8" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="S8" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="T8" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="U8" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="V8" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="W8" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="X8" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y8" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z8" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA8" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB8" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC8" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD8" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE8" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF8" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG8" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH8" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI8" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ8" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="AK8" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL8" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="AM8" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="AN8" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="AO8" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="AP8" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ8" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="AR8" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="AS8" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT8" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="AU8" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="AV8" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="AW8" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="AX8" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="AY8" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="AZ8" s="6"/>
+      <c r="B8" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q8" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="R8" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="S8" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="T8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="U8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="V8" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="W8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="X8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z8" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB8" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC8" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD8" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE8" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF8" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH8" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK8" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL8" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM8" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN8" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO8" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP8" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ8" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT8" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AV8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AW8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AX8" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AY8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AZ8" s="5"/>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>351</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="L9" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="M9" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="N9" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="O9" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="P9" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q9" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="R9" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="S9" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="T9" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="U9" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="V9" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="W9" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="X9" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y9" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z9" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA9" s="15" t="s">
+      <c r="B9" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="P9" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q9" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="R9" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="S9" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="T9" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="U9" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="V9" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="W9" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="X9" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y9" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z9" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA9" s="10" t="s">
         <v>50</v>
       </c>
       <c r="AB9" s="3" t="s">
@@ -2043,9 +2066,9 @@
       <c r="AY9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AZ9" s="6"/>
+      <c r="AZ9" s="5"/>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>401</v>
       </c>
@@ -2058,472 +2081,464 @@
       <c r="D10" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="W10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="X10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AK10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AM10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AO10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AS10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AT10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AU10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AV10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AW10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AX10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AY10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ10" s="6"/>
+      <c r="E10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="W10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="X10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AS10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AV10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AX10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AY10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ10" s="5"/>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>451</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="U11" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="V11" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="W11" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="X11" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y11" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z11" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA11" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB11" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC11" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD11" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE11" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF11" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="AG11" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH11" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI11" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ11" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="AK11" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL11" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="AM11" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="AN11" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO11" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP11" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ11" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="AR11" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="AS11" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT11" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="AU11" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="AV11" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="AW11" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="AX11" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="AY11" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="AZ11" s="6"/>
-      <c r="BA11" s="12" t="s">
-        <v>58</v>
-      </c>
+      <c r="B11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="X11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AU11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AV11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AX11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AY11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AZ11" s="5"/>
+      <c r="BA11" s="8"/>
     </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>501</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="I12" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="J12" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="K12" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="L12" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="M12" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="N12" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="O12" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="P12" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q12" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="R12" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="S12" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="T12" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="U12" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="V12" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="W12" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="X12" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y12" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z12" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA12" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB12" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC12" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD12" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="AE12" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF12" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG12" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="AH12" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI12" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="AJ12" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="AK12" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL12" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="AM12" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN12" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO12" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP12" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ12" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="AR12" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="AS12" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT12" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="AU12" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="AV12" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="AW12" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="AX12" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="AY12" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="AZ12" s="6"/>
-      <c r="BA12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB12">
-        <f>819/1941</f>
-        <v>0.42194744976816073</v>
-      </c>
+      <c r="B12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="W12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="X12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AU12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AV12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AX12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AZ12" s="5"/>
+      <c r="BA12" s="17"/>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>551</v>
       </c>
@@ -2560,325 +2575,325 @@
       <c r="L13" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="M13" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="N13" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="O13" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="P13" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q13" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="R13" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="S13" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="T13" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="U13" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="V13" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="W13" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="X13" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y13" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z13" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA13" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB13" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC13" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD13" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE13" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF13" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG13" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH13" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="AI13" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ13" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="AK13" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL13" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="AM13" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN13" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="AO13" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP13" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="AQ13" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR13" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="AS13" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="AT13" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="AU13" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="AV13" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="AW13" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="AX13" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="AY13" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="AZ13" s="6"/>
+      <c r="M13" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="P13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q13" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="R13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="S13" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="T13" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="U13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="V13" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="W13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="X13" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y13" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z13" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB13" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC13" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD13" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE13" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF13" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK13" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL13" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN13" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO13" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP13" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR13" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS13" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT13" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU13" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AV13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AW13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AX13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AY13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AZ13" s="5"/>
     </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>601</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="J14" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="K14" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="L14" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="M14" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="N14" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="O14" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="P14" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q14" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="R14" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="S14" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="T14" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="U14" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="V14" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="W14" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="X14" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y14" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z14" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD14" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AG14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AI14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AJ14" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AK14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL14" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AM14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AO14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AR14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AS14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AU14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AV14" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AW14" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="AX14" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AY14" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AZ14" s="6"/>
+      <c r="B14" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="O14" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q14" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="R14" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="S14" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="T14" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="U14" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="V14" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="W14" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="X14" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y14" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z14" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA14" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB14" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC14" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD14" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE14" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF14" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG14" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH14" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI14" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ14" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK14" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL14" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM14" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN14" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO14" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP14" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ14" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR14" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS14" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT14" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU14" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AV14" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW14" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="AX14" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="AY14" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AZ14" s="5"/>
     </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>651</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="O15" s="2" t="s">
+      <c r="B15" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="L15" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="M15" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="N15" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="O15" s="19" t="s">
         <v>50</v>
       </c>
       <c r="P15" s="2" t="s">
@@ -2935,22 +2950,22 @@
       <c r="AG15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AH15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AI15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AJ15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AK15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AM15" s="2" t="s">
+      <c r="AH15" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI15" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ15" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK15" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL15" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM15" s="19" t="s">
         <v>53</v>
       </c>
       <c r="AN15" s="2" t="s">
@@ -2977,21 +2992,21 @@
       <c r="AU15" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AV15" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AW15" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="AX15" s="5" t="s">
+      <c r="AV15" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW15" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AX15" s="14" t="s">
         <v>52</v>
       </c>
       <c r="AY15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AZ15" s="6"/>
+      <c r="AZ15" s="5"/>
     </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>701</v>
       </c>
@@ -3127,25 +3142,25 @@
       <c r="AS16" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AT16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AU16" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AV16" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AW16" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AX16" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AY16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AZ16" s="6"/>
+      <c r="AT16" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="AU16" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="AV16" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW16" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="AX16" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="AY16" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="AZ16" s="5"/>
     </row>
     <row r="17" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
@@ -3178,634 +3193,634 @@
       <c r="J17" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K17" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="S17" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="T17" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="U17" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="V17" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="W17" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="X17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y17" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA17" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB17" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD17" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AE17" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF17" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG17" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AH17" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI17" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ17" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AK17" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AL17" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AM17" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN17" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO17" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AP17" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AQ17" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AR17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AS17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AT17" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AU17" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AV17" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AW17" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AX17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AY17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ17" s="6"/>
+      <c r="K17" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="N17" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="O17" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q17" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="R17" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="S17" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="T17" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="U17" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="V17" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="W17" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="X17" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y17" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z17" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA17" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB17" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC17" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD17" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE17" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF17" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG17" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH17" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI17" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ17" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK17" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL17" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM17" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN17" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO17" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP17" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ17" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR17" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS17" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AT17" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AU17" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AV17" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AW17" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AX17" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY17" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ17" s="5"/>
     </row>
     <row r="18" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>801</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L18" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="M18" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="N18" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="O18" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="P18" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q18" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="R18" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="S18" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="T18" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="U18" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="V18" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="W18" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="X18" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y18" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z18" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA18" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB18" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC18" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD18" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="AE18" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF18" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG18" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="AH18" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI18" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="AJ18" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="AK18" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL18" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="AM18" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="AN18" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="AO18" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP18" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="AQ18" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR18" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="AS18" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="AT18" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="AU18" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="AV18" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="AW18" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="AX18" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="AY18" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="AZ18" s="6"/>
+      <c r="B18" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="O18" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q18" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="R18" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="S18" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="T18" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="U18" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="V18" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="W18" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="X18" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y18" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z18" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA18" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB18" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC18" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD18" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE18" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF18" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG18" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH18" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI18" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ18" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK18" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL18" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM18" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN18" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO18" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP18" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ18" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR18" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AS18" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AT18" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AU18" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AV18" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AW18" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AX18" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AY18" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AZ18" s="5"/>
     </row>
     <row r="19" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>851</v>
       </c>
-      <c r="B19" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="I19" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="J19" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="K19" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="L19" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="M19" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="N19" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="O19" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="P19" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q19" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="R19" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="S19" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="T19" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="U19" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="V19" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="W19" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="X19" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y19" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z19" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA19" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB19" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC19" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD19" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE19" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF19" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG19" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH19" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="AI19" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="AJ19" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="AK19" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="AL19" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="AM19" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN19" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="AO19" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP19" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="AQ19" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="AR19" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="AS19" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT19" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="AU19" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="AV19" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="AW19" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="AX19" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="AY19" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="AZ19" s="6"/>
+      <c r="B19" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="M19" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="O19" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="P19" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q19" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="R19" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="S19" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="T19" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="U19" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="V19" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="W19" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="X19" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y19" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z19" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA19" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB19" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC19" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD19" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE19" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF19" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG19" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH19" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI19" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ19" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK19" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL19" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM19" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN19" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO19" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP19" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ19" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR19" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS19" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT19" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AU19" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AV19" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AW19" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AX19" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AY19" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AZ19" s="5"/>
     </row>
     <row r="20" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>901</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="I20" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="J20" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="K20" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="L20" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="M20" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="N20" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="O20" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="P20" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q20" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="R20" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="S20" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="T20" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="U20" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="V20" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="W20" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="X20" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y20" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z20" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA20" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB20" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC20" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD20" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="AE20" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF20" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG20" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH20" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="AI20" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ20" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="AK20" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL20" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="AM20" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN20" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="AO20" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP20" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ20" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="AR20" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="AS20" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="AT20" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="AU20" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="AV20" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="AW20" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="AX20" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="AY20" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ20" s="6"/>
+      <c r="B20" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="N20" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="O20" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P20" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q20" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="R20" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="S20" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="T20" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="U20" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="V20" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="W20" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="X20" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y20" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z20" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA20" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB20" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC20" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD20" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE20" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF20" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG20" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH20" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI20" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ20" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK20" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL20" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM20" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN20" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO20" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP20" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ20" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR20" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS20" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT20" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AU20" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AV20" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW20" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AX20" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AY20" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ20" s="5"/>
     </row>
     <row r="21" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>951</v>
       </c>
-      <c r="B21" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="J21" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="K21" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="L21" s="15" t="s">
+      <c r="B21" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="L21" s="10" t="s">
         <v>50</v>
       </c>
       <c r="M21" s="3" t="s">
@@ -3874,13 +3889,13 @@
       <c r="AH21" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="AI21" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AJ21" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AK21" s="4" t="s">
+      <c r="AI21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK21" s="3" t="s">
         <v>51</v>
       </c>
       <c r="AL21" s="4" t="s">
@@ -3925,7 +3940,7 @@
       <c r="AY21" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AZ21" s="6"/>
+      <c r="AZ21" s="5"/>
     </row>
     <row r="22" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
@@ -4081,7 +4096,7 @@
       <c r="AY22" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AZ22" s="6"/>
+      <c r="AZ22" s="5"/>
     </row>
     <row r="23" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
@@ -4138,13 +4153,13 @@
       <c r="R23" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="S23" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="T23" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="U23" s="4" t="s">
+      <c r="S23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="U23" s="3" t="s">
         <v>51</v>
       </c>
       <c r="V23" s="4" t="s">
@@ -4213,13 +4228,13 @@
       <c r="AQ23" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="AR23" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AS23" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AT23" s="4" t="s">
+      <c r="AR23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT23" s="3" t="s">
         <v>51</v>
       </c>
       <c r="AU23" s="4" t="s">
@@ -4237,7 +4252,7 @@
       <c r="AY23" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AZ23" s="6"/>
+      <c r="AZ23" s="5"/>
     </row>
     <row r="24" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
@@ -4273,94 +4288,94 @@
       <c r="K24" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="L24" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="M24" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="N24" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="P24" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q24" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="R24" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="S24" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T24" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U24" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="V24" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="W24" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="X24" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y24" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z24" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA24" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB24" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC24" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD24" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE24" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF24" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AG24" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AH24" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AI24" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AJ24" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AK24" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL24" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AM24" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AN24" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AO24" s="2" t="s">
+      <c r="L24" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="M24" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="N24" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="O24" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q24" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="R24" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="S24" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="T24" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="U24" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="V24" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="W24" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="X24" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y24" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z24" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA24" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB24" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC24" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD24" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE24" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF24" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG24" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH24" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI24" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ24" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK24" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL24" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM24" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN24" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO24" s="12" t="s">
         <v>50</v>
       </c>
       <c r="AP24" s="2" t="s">
@@ -4393,7 +4408,7 @@
       <c r="AY24" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AZ24" s="6"/>
+      <c r="AZ24" s="5"/>
     </row>
     <row r="25" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
@@ -4414,19 +4429,19 @@
       <c r="F25" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="K25" s="2" t="s">
+      <c r="G25" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="J25" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="K25" s="19" t="s">
         <v>52</v>
       </c>
       <c r="L25" s="2" t="s">
@@ -4435,25 +4450,25 @@
       <c r="M25" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="N25" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="P25" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q25" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="R25" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="S25" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="T25" s="2" t="s">
+      <c r="N25" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="O25" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P25" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q25" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="R25" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="S25" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="T25" s="14" t="s">
         <v>53</v>
       </c>
       <c r="U25" s="2" t="s">
@@ -4522,34 +4537,34 @@
       <c r="AP25" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AQ25" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AR25" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AS25" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AT25" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AU25" s="2" t="s">
+      <c r="AQ25" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR25" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS25" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="AT25" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU25" s="19" t="s">
         <v>51</v>
       </c>
       <c r="AV25" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AW25" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AX25" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AY25" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ25" s="6"/>
+      <c r="AW25" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AX25" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AY25" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ25" s="5"/>
     </row>
     <row r="26" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
@@ -4627,130 +4642,130 @@
       <c r="Y26" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="Z26" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA26" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB26" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC26" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD26" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE26" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF26" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG26" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH26" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AI26" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AJ26" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AK26" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL26" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AM26" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AN26" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO26" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AP26" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ26" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR26" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AS26" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT26" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AU26" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AV26" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AW26" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AX26" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AY26" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AZ26" s="6"/>
+      <c r="Z26" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA26" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB26" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC26" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD26" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE26" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF26" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG26" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH26" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI26" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ26" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK26" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL26" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM26" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN26" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO26" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP26" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ26" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR26" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS26" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT26" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU26" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AV26" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AW26" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AX26" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AY26" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AZ26" s="5"/>
     </row>
     <row r="27" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>1251</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O27" s="2" t="s">
+      <c r="B27" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="L27" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="M27" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="N27" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="O27" s="12" t="s">
         <v>51</v>
       </c>
       <c r="P27" s="3" t="s">
@@ -4843,13 +4858,13 @@
       <c r="AS27" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AT27" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AU27" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AV27" s="4" t="s">
+      <c r="AT27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU27" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AV27" s="3" t="s">
         <v>51</v>
       </c>
       <c r="AW27" s="4" t="s">
@@ -4861,7 +4876,7 @@
       <c r="AY27" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AZ27" s="6"/>
+      <c r="AZ27" s="5"/>
     </row>
     <row r="28" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
@@ -4897,37 +4912,37 @@
       <c r="K28" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="L28" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="M28" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="N28" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="O28" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="P28" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q28" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="R28" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="S28" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="T28" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="U28" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="V28" s="15" t="s">
+      <c r="L28" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="N28" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="O28" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P28" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q28" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="R28" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="S28" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="T28" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="U28" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="V28" s="10" t="s">
         <v>50</v>
       </c>
       <c r="W28" s="3" t="s">
@@ -5005,133 +5020,133 @@
       <c r="AU28" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AV28" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="AW28" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="AX28" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="AY28" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="AZ28" s="6"/>
+      <c r="AV28" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW28" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AX28" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AY28" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AZ28" s="5"/>
     </row>
     <row r="29" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>1351</v>
       </c>
-      <c r="B29" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="G29" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="H29" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="I29" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="J29" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="K29" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="L29" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="M29" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="N29" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="O29" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="P29" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q29" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="R29" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="S29" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="T29" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="U29" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="V29" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="W29" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="X29" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y29" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z29" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA29" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB29" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC29" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD29" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="AE29" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF29" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="AG29" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH29" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="AI29" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="AJ29" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="AK29" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL29" s="15" t="s">
+      <c r="B29" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="L29" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="M29" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="N29" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="O29" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="P29" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q29" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="R29" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="S29" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="T29" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="U29" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="V29" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="W29" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="X29" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y29" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z29" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA29" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB29" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC29" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD29" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE29" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF29" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG29" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH29" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI29" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ29" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK29" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL29" s="10" t="s">
         <v>52</v>
       </c>
       <c r="AM29" s="3" t="s">
@@ -5173,7 +5188,7 @@
       <c r="AY29" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AZ29" s="6"/>
+      <c r="AZ29" s="5"/>
     </row>
     <row r="30" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
@@ -5278,13 +5293,13 @@
       <c r="AH30" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="AI30" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="AJ30" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="AK30" s="7" t="s">
+      <c r="AI30" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ30" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK30" s="9" t="s">
         <v>51</v>
       </c>
       <c r="AL30" s="3" t="s">
@@ -5311,577 +5326,577 @@
       <c r="AS30" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AT30" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AU30" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="AV30" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AW30" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AX30" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AY30" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AZ30" s="6"/>
+      <c r="AT30" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU30" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AV30" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW30" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AX30" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AY30" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AZ30" s="5"/>
     </row>
     <row r="31" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>1451</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O31" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P31" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q31" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="R31" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="S31" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="T31" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U31" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="V31" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="W31" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="X31" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y31" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z31" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA31" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB31" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC31" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD31" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE31" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF31" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AG31" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH31" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI31" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AJ31" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AK31" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL31" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AM31" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AN31" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AO31" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AP31" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ31" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AR31" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AS31" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AT31" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AU31" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AV31" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AW31" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AX31" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AY31" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AZ31" s="6"/>
+      <c r="B31" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="P31" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="R31" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="S31" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="T31" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="U31" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="V31" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="W31" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="X31" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y31" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z31" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA31" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB31" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC31" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD31" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE31" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF31" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG31" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH31" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI31" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ31" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK31" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL31" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM31" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN31" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO31" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP31" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ31" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR31" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS31" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT31" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AU31" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AV31" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AW31" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AX31" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AY31" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AZ31" s="5"/>
     </row>
     <row r="32" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>1501</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="N32" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="O32" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="P32" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q32" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="R32" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="S32" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="T32" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U32" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="V32" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="W32" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="X32" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y32" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z32" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA32" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB32" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC32" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD32" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE32" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF32" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AG32" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AH32" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI32" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AJ32" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AK32" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL32" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AM32" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AN32" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AO32" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AP32" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AQ32" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AR32" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AS32" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AT32" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AU32" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AV32" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AW32" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AX32" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AY32" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AZ32" s="6"/>
+      <c r="B32" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O32" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P32" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q32" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="R32" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="S32" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="T32" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="U32" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="V32" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="W32" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="X32" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y32" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z32" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA32" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB32" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC32" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD32" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE32" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF32" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG32" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH32" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI32" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ32" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK32" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL32" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM32" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN32" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO32" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP32" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ32" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR32" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS32" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT32" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU32" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AV32" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW32" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AX32" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AY32" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AZ32" s="5"/>
     </row>
     <row r="33" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>1551</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="N33" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="O33" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P33" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q33" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="R33" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="S33" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="T33" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="U33" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="V33" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="W33" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="X33" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y33" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z33" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA33" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB33" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC33" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD33" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE33" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF33" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG33" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AH33" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AI33" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AJ33" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AK33" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL33" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AM33" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN33" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO33" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AP33" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ33" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR33" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AS33" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AT33" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AU33" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AV33" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW33" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AX33" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AY33" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ33" s="6"/>
+      <c r="B33" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="P33" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q33" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="R33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="S33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="T33" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="U33" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="V33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="W33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="X33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y33" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA33" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB33" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC33" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD33" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE33" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF33" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG33" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH33" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI33" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ33" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK33" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL33" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM33" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN33" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO33" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP33" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ33" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR33" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS33" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT33" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU33" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AV33" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW33" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AX33" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AY33" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ33" s="5"/>
     </row>
     <row r="34" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>1601</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O34" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P34" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q34" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="R34" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="S34" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="T34" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="U34" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="V34" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="W34" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="X34" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y34" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z34" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA34" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB34" s="2" t="s">
+      <c r="B34" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K34" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="L34" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="M34" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="N34" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="O34" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P34" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q34" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="R34" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="S34" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="T34" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="U34" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="V34" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="W34" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="X34" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y34" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z34" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA34" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB34" s="12" t="s">
         <v>51</v>
       </c>
       <c r="AC34" s="2" t="s">
@@ -5953,7 +5968,7 @@
       <c r="AY34" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AZ34" s="6"/>
+      <c r="AZ34" s="5"/>
     </row>
     <row r="35" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
@@ -5980,19 +5995,19 @@
       <c r="H35" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I35" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="M35" s="2" t="s">
+      <c r="I35" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="J35" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="K35" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="L35" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="M35" s="19" t="s">
         <v>53</v>
       </c>
       <c r="N35" s="2" t="s">
@@ -6109,7 +6124,7 @@
       <c r="AY35" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AZ35" s="6"/>
+      <c r="AZ35" s="5"/>
     </row>
     <row r="36" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
@@ -6265,7 +6280,7 @@
       <c r="AY36" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AZ36" s="6"/>
+      <c r="AZ36" s="5"/>
     </row>
     <row r="37" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
@@ -6289,19 +6304,19 @@
       <c r="G37" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H37" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="L37" s="2" t="s">
+      <c r="H37" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="I37" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="J37" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="K37" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="L37" s="19" t="s">
         <v>53</v>
       </c>
       <c r="M37" s="2" t="s">
@@ -6340,22 +6355,22 @@
       <c r="X37" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="Y37" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z37" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA37" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB37" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC37" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD37" s="2" t="s">
+      <c r="Y37" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z37" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA37" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB37" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC37" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD37" s="19" t="s">
         <v>53</v>
       </c>
       <c r="AE37" s="2" t="s">
@@ -6391,19 +6406,19 @@
       <c r="AO37" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AP37" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ37" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AR37" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AS37" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AT37" s="2" t="s">
+      <c r="AP37" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ37" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR37" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="AS37" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT37" s="19" t="s">
         <v>53</v>
       </c>
       <c r="AU37" s="2" t="s">
@@ -6421,7 +6436,7 @@
       <c r="AY37" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AZ37" s="6"/>
+      <c r="AZ37" s="5"/>
     </row>
     <row r="38" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
@@ -6505,25 +6520,25 @@
       <c r="AA38" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AB38" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC38" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD38" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE38" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF38" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AG38" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH38" s="2" t="s">
+      <c r="AB38" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC38" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD38" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE38" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF38" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG38" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH38" s="19" t="s">
         <v>51</v>
       </c>
       <c r="AI38" s="2" t="s">
@@ -6577,7 +6592,7 @@
       <c r="AY38" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AZ38" s="6"/>
+      <c r="AZ38" s="5"/>
     </row>
     <row r="39" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
@@ -6706,148 +6721,148 @@
       <c r="AP39" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AQ39" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AR39" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AS39" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AT39" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AU39" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AV39" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AW39" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AX39" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AY39" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AZ39" s="6"/>
+      <c r="AQ39" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR39" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS39" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT39" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU39" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AV39" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW39" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AX39" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AY39" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AZ39" s="5"/>
     </row>
     <row r="40" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>1901</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="N40" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O40" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P40" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q40" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="R40" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="S40" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T40" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="U40" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="V40" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="W40" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="X40" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y40" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z40" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA40" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB40" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC40" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD40" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE40" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF40" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AG40" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH40" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI40" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AJ40" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AK40" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL40" s="2" t="s">
+      <c r="B40" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="J40" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="K40" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L40" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="M40" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="N40" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="O40" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="P40" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q40" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="R40" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="S40" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="T40" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="U40" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="V40" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="W40" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="X40" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y40" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z40" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA40" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB40" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC40" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD40" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE40" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF40" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG40" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH40" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI40" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ40" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK40" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL40" s="12" t="s">
         <v>51</v>
       </c>
       <c r="AM40" s="2" t="s">
@@ -6862,33 +6877,39 @@
       <c r="AP40" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AQ40" s="6"/>
-      <c r="AR40" s="6"/>
-      <c r="AS40" s="6"/>
-      <c r="AT40" s="6"/>
-      <c r="AU40" s="6"/>
-      <c r="AV40" s="6"/>
-      <c r="AW40" s="6"/>
-      <c r="AX40" s="6"/>
-      <c r="AY40" s="6"/>
-      <c r="AZ40" s="6"/>
+      <c r="AQ40" s="5"/>
+      <c r="AR40" s="5"/>
+      <c r="AS40" s="5"/>
+      <c r="AT40" s="5"/>
+      <c r="AU40" s="5"/>
+      <c r="AV40" s="5"/>
+      <c r="AW40" s="5"/>
+      <c r="AX40" s="5"/>
+      <c r="AY40" s="5"/>
+      <c r="AZ40" s="5"/>
     </row>
     <row r="41" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="AC41" s="9"/>
-      <c r="AD41" s="12" t="s">
+      <c r="AC41" s="13"/>
+      <c r="AD41" s="8" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="AC42" s="10"/>
+      <c r="AC42" s="6"/>
       <c r="AD42" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="AC43" s="11"/>
-      <c r="AD43" s="12" t="s">
+      <c r="AC43" s="16"/>
+      <c r="AD43" s="1" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="AC44" s="7"/>
+      <c r="AD44" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/coverage_summary_updated.xlsx
+++ b/coverage_summary_updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rt753149/Desktop/mRNA_sequencing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5365627-D0FD-FA4B-AFCA-18D7FCBBF209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5755D9CF-52B5-2E48-939B-D740FD6C7EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-80" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -246,7 +246,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -292,6 +292,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,7 +361,7 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -656,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BA44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="141" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36:AY36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="141" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2884,16 +2890,16 @@
       <c r="K15" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="L15" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="M15" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="N15" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="O15" s="19" t="s">
+      <c r="L15" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="N15" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="O15" s="2" t="s">
         <v>50</v>
       </c>
       <c r="P15" s="2" t="s">
@@ -2950,22 +2956,22 @@
       <c r="AG15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AH15" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="AI15" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="AJ15" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="AK15" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL15" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="AM15" s="19" t="s">
+      <c r="AH15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM15" s="2" t="s">
         <v>53</v>
       </c>
       <c r="AN15" s="2" t="s">
@@ -3142,22 +3148,22 @@
       <c r="AS16" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AT16" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="AU16" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="AV16" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="AW16" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="AX16" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="AY16" s="19" t="s">
+      <c r="AT16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AU16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AV16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AX16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AY16" s="2" t="s">
         <v>53</v>
       </c>
       <c r="AZ16" s="5"/>
@@ -3178,19 +3184,19 @@
       <c r="E17" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J17" s="2" t="s">
+      <c r="F17" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="J17" s="19" t="s">
         <v>52</v>
       </c>
       <c r="K17" s="12" t="s">
@@ -3226,61 +3232,61 @@
       <c r="U17" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="V17" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="W17" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="X17" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y17" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z17" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA17" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB17" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC17" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD17" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="AE17" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF17" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG17" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="AH17" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI17" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ17" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="AK17" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="AL17" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="AM17" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN17" s="12" t="s">
+      <c r="V17" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="W17" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="X17" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y17" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z17" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA17" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB17" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC17" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD17" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE17" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF17" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG17" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH17" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI17" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ17" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK17" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL17" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM17" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN17" s="19" t="s">
         <v>52</v>
       </c>
       <c r="AO17" s="12" t="s">
@@ -4429,19 +4435,19 @@
       <c r="F25" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G25" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="H25" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="I25" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="J25" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="K25" s="19" t="s">
+      <c r="G25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K25" s="2" t="s">
         <v>52</v>
       </c>
       <c r="L25" s="2" t="s">
@@ -4450,22 +4456,22 @@
       <c r="M25" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="N25" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="O25" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="P25" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q25" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="R25" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="S25" s="20" t="s">
+      <c r="N25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R25" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="S25" s="14" t="s">
         <v>50</v>
       </c>
       <c r="T25" s="14" t="s">
@@ -4513,34 +4519,34 @@
       <c r="AH25" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AI25" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ25" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AK25" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL25" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AM25" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN25" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO25" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AP25" s="2" t="s">
+      <c r="AI25" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ25" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK25" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL25" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM25" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN25" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO25" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP25" s="20" t="s">
         <v>53</v>
       </c>
       <c r="AQ25" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="AR25" s="19" t="s">
+      <c r="AR25" s="20" t="s">
         <v>50</v>
       </c>
       <c r="AS25" s="19" t="s">
@@ -4549,7 +4555,7 @@
       <c r="AT25" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="AU25" s="19" t="s">
+      <c r="AU25" s="2" t="s">
         <v>51</v>
       </c>
       <c r="AV25" s="2" t="s">
@@ -5995,19 +6001,19 @@
       <c r="H35" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I35" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="J35" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="K35" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="L35" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="M35" s="19" t="s">
+      <c r="I35" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M35" s="2" t="s">
         <v>53</v>
       </c>
       <c r="N35" s="2" t="s">
@@ -6298,13 +6304,13 @@
       <c r="E37" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F37" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H37" s="19" t="s">
+      <c r="F37" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="G37" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="H37" s="20" t="s">
         <v>53</v>
       </c>
       <c r="I37" s="19" t="s">
@@ -6319,13 +6325,13 @@
       <c r="L37" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="M37" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="N37" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O37" s="2" t="s">
+      <c r="M37" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="N37" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="O37" s="19" t="s">
         <v>50</v>
       </c>
       <c r="P37" s="2" t="s">
@@ -6355,22 +6361,22 @@
       <c r="X37" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="Y37" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z37" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA37" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB37" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC37" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD37" s="19" t="s">
+      <c r="Y37" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z37" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA37" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB37" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC37" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD37" s="2" t="s">
         <v>53</v>
       </c>
       <c r="AE37" s="2" t="s">
@@ -6406,19 +6412,19 @@
       <c r="AO37" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AP37" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ37" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="AR37" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="AS37" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="AT37" s="19" t="s">
+      <c r="AP37" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ37" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR37" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AS37" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT37" s="2" t="s">
         <v>53</v>
       </c>
       <c r="AU37" s="2" t="s">
@@ -6520,25 +6526,25 @@
       <c r="AA38" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AB38" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC38" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD38" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE38" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF38" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="AG38" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH38" s="19" t="s">
+      <c r="AB38" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC38" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD38" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE38" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF38" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG38" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH38" s="2" t="s">
         <v>51</v>
       </c>
       <c r="AI38" s="2" t="s">
@@ -6721,31 +6727,31 @@
       <c r="AP39" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AQ39" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="AR39" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="AS39" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="AT39" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="AU39" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="AV39" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="AW39" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="AX39" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="AY39" s="12" t="s">
+      <c r="AQ39" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR39" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS39" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT39" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU39" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AV39" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW39" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AX39" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AY39" s="10" t="s">
         <v>51</v>
       </c>
       <c r="AZ39" s="5"/>
@@ -6754,115 +6760,115 @@
       <c r="A40" s="1">
         <v>1901</v>
       </c>
-      <c r="B40" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="H40" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="I40" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="J40" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="K40" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="L40" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="M40" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="N40" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="O40" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="P40" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q40" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="R40" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="S40" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="T40" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="U40" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="V40" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="W40" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="X40" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y40" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z40" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA40" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB40" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC40" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD40" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE40" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF40" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="AG40" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH40" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI40" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="AJ40" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="AK40" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL40" s="12" t="s">
+      <c r="B40" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="J40" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="K40" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="L40" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="M40" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="N40" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="O40" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="P40" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q40" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="R40" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="S40" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="T40" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="U40" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="V40" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="W40" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="X40" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y40" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z40" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA40" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB40" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC40" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD40" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE40" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF40" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG40" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH40" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI40" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ40" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK40" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL40" s="10" t="s">
         <v>51</v>
       </c>
       <c r="AM40" s="2" t="s">
